--- a/fartoyspesPHP.xlsx
+++ b/fartoyspesPHP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\skipsweb\_bakgrunn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0B8376-FD5F-44B7-89EF-45F829E3D6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076D0A4D-6167-44ED-BF26-B2E55FFA92EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{686BE352-D0B5-4728-A4DF-578592590D44}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="156">
   <si>
     <t>Felt</t>
   </si>
@@ -335,9 +335,6 @@
     <t>Klassedetalj</t>
   </si>
   <si>
-    <t>Type&lt;KlasseNavn</t>
-  </si>
-  <si>
     <t>Riggdetalj</t>
   </si>
   <si>
@@ -429,16 +426,100 @@
   </si>
   <si>
     <t>Referanse fra andre filer</t>
+  </si>
+  <si>
+    <t>Gruppering</t>
+  </si>
+  <si>
+    <t>Byggedata, linje 1</t>
+  </si>
+  <si>
+    <t>Byggedata, linje 2</t>
+  </si>
+  <si>
+    <t>Byggedata, linje 3</t>
+  </si>
+  <si>
+    <t>Byggedata, linje 4</t>
+  </si>
+  <si>
+    <t>Byggedata, linje 2 etter 'Skrog verft'</t>
+  </si>
+  <si>
+    <t>Byggedata, linje 1 etter 'Byggeverft'</t>
+  </si>
+  <si>
+    <t>Byggedata, linje 3 etter 'Skrogtype'</t>
+  </si>
+  <si>
+    <t>Fremdrift, linje 1</t>
+  </si>
+  <si>
+    <t>TypeKlasseNavn</t>
+  </si>
+  <si>
+    <t>Byggedata, linje 4 etter 'Rigg'</t>
+  </si>
+  <si>
+    <t>Byggedata, linje 5</t>
+  </si>
+  <si>
+    <t>Byggedata, linje 5 etter 'Klasse'</t>
+  </si>
+  <si>
+    <t>Funksjon, linje 1</t>
+  </si>
+  <si>
+    <t>Funksjon, linje 2</t>
+  </si>
+  <si>
+    <t>Funksjon, linje 3</t>
+  </si>
+  <si>
+    <t>Funksjonstype</t>
+  </si>
+  <si>
+    <t>Hovedspesifikasjon, linje 1</t>
+  </si>
+  <si>
+    <t>Hovedspesifikasjon, linje 2</t>
+  </si>
+  <si>
+    <t>Hovedspesifikasjon, linje 3</t>
+  </si>
+  <si>
+    <t>Hovedspesifikasjon, linje 4</t>
+  </si>
+  <si>
+    <t>Etter 'År/mnd for spes'</t>
+  </si>
+  <si>
+    <t>Fremdrift, linje 2</t>
+  </si>
+  <si>
+    <t>Fremdrift, linje 3</t>
+  </si>
+  <si>
+    <t>Fremdrift, linje 2 etter 'Motortype'</t>
+  </si>
+  <si>
+    <t>Hovedspesifikasjon, linje 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -811,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1B1C67-610B-48DF-9150-FFBDC65A893A}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,12 +906,12 @@
     <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" customWidth="1"/>
+    <col min="7" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,13 +934,16 @@
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -873,7 +957,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>33</v>
@@ -881,32 +965,32 @@
       <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -924,7 +1008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -942,7 +1026,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -961,212 +1045,210 @@
       <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8">
+        <v>250</v>
+      </c>
+      <c r="G8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="H16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1174,183 +1256,210 @@
       <c r="E17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
+      <c r="C19" s="3"/>
       <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="F20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="F20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
         <v>20</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>82</v>
       </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
@@ -1359,262 +1468,319 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="G28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
+      <c r="C29" s="3"/>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="H29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
+      <c r="C30" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="D30" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>60</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F31" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="H31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
+      <c r="C32" s="3"/>
       <c r="D32" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32">
-        <v>12</v>
+        <v>109</v>
+      </c>
+      <c r="F32" t="s">
+        <v>117</v>
       </c>
       <c r="G32" t="s">
-        <v>125</v>
+        <v>98</v>
+      </c>
+      <c r="H32" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
+      <c r="C33" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="D33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>102</v>
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34">
-        <v>250</v>
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>120</v>
       </c>
       <c r="G34" t="s">
-        <v>103</v>
+        <v>146</v>
+      </c>
+      <c r="H34" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35">
-        <v>30</v>
+        <v>109</v>
+      </c>
+      <c r="F35" t="s">
+        <v>121</v>
       </c>
       <c r="G35" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="H35" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36">
-        <v>12</v>
+        <v>109</v>
+      </c>
+      <c r="F36" t="s">
+        <v>122</v>
       </c>
       <c r="G36" t="s">
-        <v>105</v>
+        <v>62</v>
+      </c>
+      <c r="H36" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="D37" t="s">
         <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>58</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" t="s">
-        <v>43</v>
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2</v>
       </c>
       <c r="D39" t="s">
         <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G40" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="H40" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G41" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="H41" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" t="s">
-        <v>9</v>
+        <v>109</v>
+      </c>
+      <c r="F42">
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="H42" t="s">
-        <v>112</v>
-      </c>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>